--- a/PaperNeural/ResultsControl.xlsx
+++ b/PaperNeural/ResultsControl.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliveirafhm/Dropbox/Compartilhada Alessando e Fabio/Clinic 09.03.2016/Programs/oliveirafhm/PaperNeural/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Compartilhada Alessando e Fabio\Clinic 09.03.2016\Programs\oliveirafhm\code_paper_journal_2017\PaperNeural\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="-25605" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Detail" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -59,11 +62,89 @@
   <si>
     <t>CV_GM_SDBS</t>
   </si>
+  <si>
+    <t>ResultsMar2017-PCA.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_1000_LR_0.3.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_2000_LR_0.3.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_3000_LR_0.3.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_4000_LR_0.3.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_5000_LR_0.3.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_1000_LR_0.4.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_2000_LR_0.4.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_3000_LR_0.4.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_4000_LR_0.4.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_5000_LR_0.4.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_1000_LR_0.5.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_2000_LR_0.5.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_3000_LR_0.5.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_4000_LR_0.5.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_5000_LR_0.5.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_1000_LR_0.6.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_2000_LR_0.6.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_3000_LR_0.6.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_4000_LR_0.6.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_5000_LR_0.6.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_1000_LR_0.7.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_2000_LR_0.7.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_3000_LR_0.7.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_4000_LR_0.7.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsMar2017-Sammon_MI_5000_LR_0.7.xlsx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -404,26 +485,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +534,762 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0.69603174603174611</v>
+      </c>
+      <c r="E2">
+        <v>0.77579365079365092</v>
+      </c>
+      <c r="F2">
+        <v>0.71891534391534395</v>
+      </c>
+      <c r="G2">
+        <v>0.72857142857142854</v>
+      </c>
+      <c r="H2">
+        <v>0.7589285714285714</v>
+      </c>
+      <c r="I2">
+        <v>0.6607142857142857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>0.79920634920634914</v>
+      </c>
+      <c r="E3">
+        <v>0.78968253968253965</v>
+      </c>
+      <c r="F3">
+        <v>0.78042328042328057</v>
+      </c>
+      <c r="G3">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="H3">
+        <v>0.7633928571428571</v>
+      </c>
+      <c r="I3">
+        <v>0.64880952380952384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0.7849206349206348</v>
+      </c>
+      <c r="E4">
+        <v>0.79761904761904767</v>
+      </c>
+      <c r="F4">
+        <v>0.75132275132275128</v>
+      </c>
+      <c r="G4">
+        <v>0.83571428571428574</v>
+      </c>
+      <c r="H4">
+        <v>0.75</v>
+      </c>
+      <c r="I4">
+        <v>0.64880952380952372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0.79682539682539677</v>
+      </c>
+      <c r="E5">
+        <v>0.80109126984126988</v>
+      </c>
+      <c r="F5">
+        <v>0.76455026455026442</v>
+      </c>
+      <c r="G5">
+        <v>0.75</v>
+      </c>
+      <c r="H5">
+        <v>0.78125</v>
+      </c>
+      <c r="I5">
+        <v>0.72023809523809523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>0.79603174603174598</v>
+      </c>
+      <c r="E6">
+        <v>0.79761904761904767</v>
+      </c>
+      <c r="F6">
+        <v>0.76322751322751325</v>
+      </c>
+      <c r="G6">
+        <v>0.82142857142857151</v>
+      </c>
+      <c r="H6">
+        <v>0.7455357142857143</v>
+      </c>
+      <c r="I6">
+        <v>0.70238095238095233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="E7">
+        <v>0.78670634920634919</v>
+      </c>
+      <c r="F7">
+        <v>0.76388888888888873</v>
+      </c>
+      <c r="G7">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="H7">
+        <v>0.7321428571428571</v>
+      </c>
+      <c r="I7">
+        <v>0.69047619047619047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="E8">
+        <v>0.79067460317460303</v>
+      </c>
+      <c r="F8">
+        <v>0.76653439153439151</v>
+      </c>
+      <c r="G8">
+        <v>0.76428571428571435</v>
+      </c>
+      <c r="H8">
+        <v>0.7767857142857143</v>
+      </c>
+      <c r="I8">
+        <v>0.67261904761904756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>0.77857142857142847</v>
+      </c>
+      <c r="E9">
+        <v>0.78869047619047616</v>
+      </c>
+      <c r="F9">
+        <v>0.7506613756613757</v>
+      </c>
+      <c r="G9">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="H9">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="I9">
+        <v>0.68452380952380953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>0.79603174603174598</v>
+      </c>
+      <c r="E10">
+        <v>0.79613095238095244</v>
+      </c>
+      <c r="F10">
+        <v>0.77447089947089942</v>
+      </c>
+      <c r="G10">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="H10">
+        <v>0.7946428571428571</v>
+      </c>
+      <c r="I10">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>0.79444444444444451</v>
+      </c>
+      <c r="E11">
+        <v>0.7901785714285714</v>
+      </c>
+      <c r="F11">
+        <v>0.77182539682539697</v>
+      </c>
+      <c r="G11">
+        <v>0.75</v>
+      </c>
+      <c r="H11">
+        <v>0.7991071428571429</v>
+      </c>
+      <c r="I11">
+        <v>0.6607142857142857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>0.79206349206349203</v>
+      </c>
+      <c r="E12">
+        <v>0.78720238095238104</v>
+      </c>
+      <c r="F12">
+        <v>0.76587301587301593</v>
+      </c>
+      <c r="G12">
+        <v>0.77857142857142869</v>
+      </c>
+      <c r="H12">
+        <v>0.7589285714285714</v>
+      </c>
+      <c r="I12">
+        <v>0.68452380952380953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>0.78968253968253965</v>
+      </c>
+      <c r="E13">
+        <v>0.791170634920635</v>
+      </c>
+      <c r="F13">
+        <v>0.76851851851851849</v>
+      </c>
+      <c r="G13">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="H13">
+        <v>0.8169642857142857</v>
+      </c>
+      <c r="I13">
+        <v>0.6964285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>0.79126984126984123</v>
+      </c>
+      <c r="E14">
+        <v>0.78174603174603174</v>
+      </c>
+      <c r="F14">
+        <v>0.74603174603174605</v>
+      </c>
+      <c r="G14">
+        <v>0.75714285714285723</v>
+      </c>
+      <c r="H14">
+        <v>0.7946428571428571</v>
+      </c>
+      <c r="I14">
+        <v>0.65476190476190477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="E15">
+        <v>0.78670634920634919</v>
+      </c>
+      <c r="F15">
+        <v>0.76322751322751325</v>
+      </c>
+      <c r="G15">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="H15">
+        <v>0.7767857142857143</v>
+      </c>
+      <c r="I15">
+        <v>0.72023809523809523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="E16">
+        <v>0.79315476190476186</v>
+      </c>
+      <c r="F16">
+        <v>0.78042328042328035</v>
+      </c>
+      <c r="G16">
+        <v>0.75</v>
+      </c>
+      <c r="H16">
+        <v>0.7767857142857143</v>
+      </c>
+      <c r="I16">
+        <v>0.63095238095238104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>0.78412698412698412</v>
+      </c>
+      <c r="E17">
+        <v>0.79861111111111127</v>
+      </c>
+      <c r="F17">
+        <v>0.76058201058201058</v>
+      </c>
+      <c r="G17">
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="H17">
+        <v>0.7723214285714286</v>
+      </c>
+      <c r="I17">
+        <v>0.71428571428571441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>0.78650793650793638</v>
+      </c>
+      <c r="E18">
+        <v>0.78125</v>
+      </c>
+      <c r="F18">
+        <v>0.75</v>
+      </c>
+      <c r="G18">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="H18">
+        <v>0.7678571428571429</v>
+      </c>
+      <c r="I18">
+        <v>0.6607142857142857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>0.78730158730158728</v>
+      </c>
+      <c r="E19">
+        <v>0.78323412698412709</v>
+      </c>
+      <c r="F19">
+        <v>0.76058201058201058</v>
+      </c>
+      <c r="G19">
+        <v>0.80714285714285716</v>
+      </c>
+      <c r="H19">
+        <v>0.7678571428571429</v>
+      </c>
+      <c r="I19">
+        <v>0.67261904761904756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>0.79682539682539677</v>
+      </c>
+      <c r="E20">
+        <v>0.79265873015873012</v>
+      </c>
+      <c r="F20">
+        <v>0.76719576719576721</v>
+      </c>
+      <c r="G20">
+        <v>0.77142857142857146</v>
+      </c>
+      <c r="H20">
+        <v>0.7991071428571429</v>
+      </c>
+      <c r="I20">
+        <v>0.68452380952380942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>0.776984126984127</v>
+      </c>
+      <c r="E21">
+        <v>0.79365079365079372</v>
+      </c>
+      <c r="F21">
+        <v>0.77976190476190477</v>
+      </c>
+      <c r="G21">
+        <v>0.73571428571428577</v>
+      </c>
+      <c r="H21">
+        <v>0.7410714285714286</v>
+      </c>
+      <c r="I21">
+        <v>0.61309523809523814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>0.80238095238095231</v>
+      </c>
+      <c r="E22">
+        <v>0.79414682539682546</v>
+      </c>
+      <c r="F22">
+        <v>0.75925925925925941</v>
+      </c>
+      <c r="G22">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="H22">
+        <v>0.7767857142857143</v>
+      </c>
+      <c r="I22">
+        <v>0.72619047619047616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="E23">
+        <v>0.80307539682539686</v>
+      </c>
+      <c r="F23">
+        <v>0.77447089947089942</v>
+      </c>
+      <c r="G23">
+        <v>0.76428571428571423</v>
+      </c>
+      <c r="H23">
+        <v>0.75</v>
+      </c>
+      <c r="I23">
+        <v>0.65476190476190488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>0.79126984126984112</v>
+      </c>
+      <c r="E24">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="F24">
+        <v>0.76917989417989419</v>
+      </c>
+      <c r="G24">
+        <v>0.80714285714285705</v>
+      </c>
+      <c r="H24">
+        <v>0.7455357142857143</v>
+      </c>
+      <c r="I24">
+        <v>0.69047619047619047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>0.79920634920634903</v>
+      </c>
+      <c r="E25">
+        <v>0.79662698412698418</v>
+      </c>
+      <c r="F25">
+        <v>0.76653439153439151</v>
+      </c>
+      <c r="G25">
+        <v>0.70714285714285707</v>
+      </c>
+      <c r="H25">
+        <v>0.7455357142857143</v>
+      </c>
+      <c r="I25">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>0.80158730158730152</v>
+      </c>
+      <c r="E26">
+        <v>0.78869047619047628</v>
+      </c>
+      <c r="F26">
+        <v>0.76124338624338628</v>
+      </c>
+      <c r="G26">
+        <v>0.75714285714285701</v>
+      </c>
+      <c r="H26">
+        <v>0.7901785714285714</v>
+      </c>
+      <c r="I26">
+        <v>0.77976190476190488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="E27">
+        <v>0.79265873015873023</v>
+      </c>
+      <c r="F27">
+        <v>0.76917989417989419</v>
+      </c>
+      <c r="G27">
+        <v>0.70714285714285718</v>
+      </c>
+      <c r="H27">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="I27">
+        <v>0.70833333333333326</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -460,16 +1297,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B729"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1481" sqref="A1481"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -480,6 +1317,5830 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>4</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>4</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>5</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>5</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>5</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>5</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>5</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>5</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>5</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>5</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>5</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>5</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>5</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>5</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>5</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>5</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>6</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>6</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>6</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>6</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>6</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>6</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>6</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>6</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>6</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>6</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>6</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>6</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>6</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>6</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>6</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>6</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>6</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>6</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>6</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>6</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>6</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>7</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>7</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>7</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>7</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>7</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>7</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>7</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>7</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>7</v>
+      </c>
+      <c r="B187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>7</v>
+      </c>
+      <c r="B188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>7</v>
+      </c>
+      <c r="B189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>7</v>
+      </c>
+      <c r="B190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>7</v>
+      </c>
+      <c r="B191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>7</v>
+      </c>
+      <c r="B192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>7</v>
+      </c>
+      <c r="B193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>7</v>
+      </c>
+      <c r="B194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>7</v>
+      </c>
+      <c r="B195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>7</v>
+      </c>
+      <c r="B196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>7</v>
+      </c>
+      <c r="B197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>8</v>
+      </c>
+      <c r="B202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>8</v>
+      </c>
+      <c r="B203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>8</v>
+      </c>
+      <c r="B204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>8</v>
+      </c>
+      <c r="B205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>8</v>
+      </c>
+      <c r="B206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>8</v>
+      </c>
+      <c r="B207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>8</v>
+      </c>
+      <c r="B208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>8</v>
+      </c>
+      <c r="B209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>8</v>
+      </c>
+      <c r="B210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>8</v>
+      </c>
+      <c r="B211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>8</v>
+      </c>
+      <c r="B212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>8</v>
+      </c>
+      <c r="B213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>8</v>
+      </c>
+      <c r="B214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>8</v>
+      </c>
+      <c r="B215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>8</v>
+      </c>
+      <c r="B216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>8</v>
+      </c>
+      <c r="B217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>8</v>
+      </c>
+      <c r="B218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>8</v>
+      </c>
+      <c r="B219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>8</v>
+      </c>
+      <c r="B220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>8</v>
+      </c>
+      <c r="B221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>8</v>
+      </c>
+      <c r="B222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>8</v>
+      </c>
+      <c r="B223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>8</v>
+      </c>
+      <c r="B224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>8</v>
+      </c>
+      <c r="B225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>9</v>
+      </c>
+      <c r="B226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>9</v>
+      </c>
+      <c r="B227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>9</v>
+      </c>
+      <c r="B228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>9</v>
+      </c>
+      <c r="B229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>9</v>
+      </c>
+      <c r="B230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>9</v>
+      </c>
+      <c r="B231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>9</v>
+      </c>
+      <c r="B232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>9</v>
+      </c>
+      <c r="B233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>9</v>
+      </c>
+      <c r="B234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>9</v>
+      </c>
+      <c r="B235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>9</v>
+      </c>
+      <c r="B236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>9</v>
+      </c>
+      <c r="B237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>9</v>
+      </c>
+      <c r="B238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>9</v>
+      </c>
+      <c r="B239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>9</v>
+      </c>
+      <c r="B240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>9</v>
+      </c>
+      <c r="B241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>9</v>
+      </c>
+      <c r="B242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>9</v>
+      </c>
+      <c r="B243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>9</v>
+      </c>
+      <c r="B244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>9</v>
+      </c>
+      <c r="B245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>9</v>
+      </c>
+      <c r="B246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>9</v>
+      </c>
+      <c r="B247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>9</v>
+      </c>
+      <c r="B248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>9</v>
+      </c>
+      <c r="B249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>9</v>
+      </c>
+      <c r="B250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>9</v>
+      </c>
+      <c r="B251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>9</v>
+      </c>
+      <c r="B252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>9</v>
+      </c>
+      <c r="B253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>10</v>
+      </c>
+      <c r="B254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>10</v>
+      </c>
+      <c r="B255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>10</v>
+      </c>
+      <c r="B256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>10</v>
+      </c>
+      <c r="B257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>10</v>
+      </c>
+      <c r="B258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>10</v>
+      </c>
+      <c r="B259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>10</v>
+      </c>
+      <c r="B260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>10</v>
+      </c>
+      <c r="B261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>10</v>
+      </c>
+      <c r="B262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>10</v>
+      </c>
+      <c r="B263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>10</v>
+      </c>
+      <c r="B264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>10</v>
+      </c>
+      <c r="B265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>10</v>
+      </c>
+      <c r="B266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>10</v>
+      </c>
+      <c r="B267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>10</v>
+      </c>
+      <c r="B268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>10</v>
+      </c>
+      <c r="B269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>10</v>
+      </c>
+      <c r="B270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>10</v>
+      </c>
+      <c r="B271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>10</v>
+      </c>
+      <c r="B272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>10</v>
+      </c>
+      <c r="B273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>10</v>
+      </c>
+      <c r="B274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>10</v>
+      </c>
+      <c r="B275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>10</v>
+      </c>
+      <c r="B276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>10</v>
+      </c>
+      <c r="B277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>10</v>
+      </c>
+      <c r="B278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>10</v>
+      </c>
+      <c r="B279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>10</v>
+      </c>
+      <c r="B280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>10</v>
+      </c>
+      <c r="B281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>11</v>
+      </c>
+      <c r="B282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>11</v>
+      </c>
+      <c r="B283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>11</v>
+      </c>
+      <c r="B284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>11</v>
+      </c>
+      <c r="B285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>11</v>
+      </c>
+      <c r="B286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>11</v>
+      </c>
+      <c r="B287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>11</v>
+      </c>
+      <c r="B288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>11</v>
+      </c>
+      <c r="B289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>11</v>
+      </c>
+      <c r="B290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>11</v>
+      </c>
+      <c r="B291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>11</v>
+      </c>
+      <c r="B292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>11</v>
+      </c>
+      <c r="B293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>11</v>
+      </c>
+      <c r="B294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>11</v>
+      </c>
+      <c r="B295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>11</v>
+      </c>
+      <c r="B296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>11</v>
+      </c>
+      <c r="B297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>11</v>
+      </c>
+      <c r="B298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>11</v>
+      </c>
+      <c r="B299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>11</v>
+      </c>
+      <c r="B300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>11</v>
+      </c>
+      <c r="B301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>11</v>
+      </c>
+      <c r="B302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>11</v>
+      </c>
+      <c r="B303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>11</v>
+      </c>
+      <c r="B304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>11</v>
+      </c>
+      <c r="B305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>11</v>
+      </c>
+      <c r="B306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>11</v>
+      </c>
+      <c r="B307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>11</v>
+      </c>
+      <c r="B308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>11</v>
+      </c>
+      <c r="B309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>12</v>
+      </c>
+      <c r="B310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>12</v>
+      </c>
+      <c r="B311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>12</v>
+      </c>
+      <c r="B312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>12</v>
+      </c>
+      <c r="B313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>12</v>
+      </c>
+      <c r="B314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>12</v>
+      </c>
+      <c r="B315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>12</v>
+      </c>
+      <c r="B316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>12</v>
+      </c>
+      <c r="B317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>12</v>
+      </c>
+      <c r="B318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>12</v>
+      </c>
+      <c r="B319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>12</v>
+      </c>
+      <c r="B320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>12</v>
+      </c>
+      <c r="B321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>12</v>
+      </c>
+      <c r="B322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>12</v>
+      </c>
+      <c r="B323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>12</v>
+      </c>
+      <c r="B324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>12</v>
+      </c>
+      <c r="B325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>12</v>
+      </c>
+      <c r="B326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>12</v>
+      </c>
+      <c r="B327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>12</v>
+      </c>
+      <c r="B328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>12</v>
+      </c>
+      <c r="B329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>12</v>
+      </c>
+      <c r="B330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>12</v>
+      </c>
+      <c r="B331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>12</v>
+      </c>
+      <c r="B332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>12</v>
+      </c>
+      <c r="B333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>12</v>
+      </c>
+      <c r="B334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>12</v>
+      </c>
+      <c r="B335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>12</v>
+      </c>
+      <c r="B336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>12</v>
+      </c>
+      <c r="B337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>13</v>
+      </c>
+      <c r="B338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>13</v>
+      </c>
+      <c r="B339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>13</v>
+      </c>
+      <c r="B340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>13</v>
+      </c>
+      <c r="B341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>13</v>
+      </c>
+      <c r="B342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>13</v>
+      </c>
+      <c r="B343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>13</v>
+      </c>
+      <c r="B344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>13</v>
+      </c>
+      <c r="B345">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>13</v>
+      </c>
+      <c r="B346">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>13</v>
+      </c>
+      <c r="B347">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>13</v>
+      </c>
+      <c r="B348">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>13</v>
+      </c>
+      <c r="B349">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>13</v>
+      </c>
+      <c r="B350">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>13</v>
+      </c>
+      <c r="B351">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>13</v>
+      </c>
+      <c r="B352">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>13</v>
+      </c>
+      <c r="B353">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>13</v>
+      </c>
+      <c r="B354">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>13</v>
+      </c>
+      <c r="B355">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>13</v>
+      </c>
+      <c r="B356">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>13</v>
+      </c>
+      <c r="B357">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>13</v>
+      </c>
+      <c r="B358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>13</v>
+      </c>
+      <c r="B359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>13</v>
+      </c>
+      <c r="B360">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>13</v>
+      </c>
+      <c r="B361">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>13</v>
+      </c>
+      <c r="B362">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>13</v>
+      </c>
+      <c r="B363">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>13</v>
+      </c>
+      <c r="B364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>13</v>
+      </c>
+      <c r="B365">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>14</v>
+      </c>
+      <c r="B366">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>14</v>
+      </c>
+      <c r="B367">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>14</v>
+      </c>
+      <c r="B368">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>14</v>
+      </c>
+      <c r="B369">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>14</v>
+      </c>
+      <c r="B370">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>14</v>
+      </c>
+      <c r="B371">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>14</v>
+      </c>
+      <c r="B372">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>14</v>
+      </c>
+      <c r="B373">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>14</v>
+      </c>
+      <c r="B374">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>14</v>
+      </c>
+      <c r="B375">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>14</v>
+      </c>
+      <c r="B376">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>14</v>
+      </c>
+      <c r="B377">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>14</v>
+      </c>
+      <c r="B378">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>14</v>
+      </c>
+      <c r="B379">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>14</v>
+      </c>
+      <c r="B380">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>14</v>
+      </c>
+      <c r="B381">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>14</v>
+      </c>
+      <c r="B382">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>14</v>
+      </c>
+      <c r="B383">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>14</v>
+      </c>
+      <c r="B384">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>14</v>
+      </c>
+      <c r="B385">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>14</v>
+      </c>
+      <c r="B386">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>14</v>
+      </c>
+      <c r="B387">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>14</v>
+      </c>
+      <c r="B388">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>14</v>
+      </c>
+      <c r="B389">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>14</v>
+      </c>
+      <c r="B390">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>14</v>
+      </c>
+      <c r="B391">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>14</v>
+      </c>
+      <c r="B392">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>14</v>
+      </c>
+      <c r="B393">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>15</v>
+      </c>
+      <c r="B394">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>15</v>
+      </c>
+      <c r="B395">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>15</v>
+      </c>
+      <c r="B396">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>15</v>
+      </c>
+      <c r="B397">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>15</v>
+      </c>
+      <c r="B398">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>15</v>
+      </c>
+      <c r="B399">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>15</v>
+      </c>
+      <c r="B400">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>15</v>
+      </c>
+      <c r="B401">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>15</v>
+      </c>
+      <c r="B402">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>15</v>
+      </c>
+      <c r="B403">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>15</v>
+      </c>
+      <c r="B404">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>15</v>
+      </c>
+      <c r="B405">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>15</v>
+      </c>
+      <c r="B406">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>15</v>
+      </c>
+      <c r="B407">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>15</v>
+      </c>
+      <c r="B408">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>15</v>
+      </c>
+      <c r="B409">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>15</v>
+      </c>
+      <c r="B410">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>15</v>
+      </c>
+      <c r="B411">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>15</v>
+      </c>
+      <c r="B412">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>15</v>
+      </c>
+      <c r="B413">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>15</v>
+      </c>
+      <c r="B414">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>15</v>
+      </c>
+      <c r="B415">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>15</v>
+      </c>
+      <c r="B416">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>15</v>
+      </c>
+      <c r="B417">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>15</v>
+      </c>
+      <c r="B418">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>15</v>
+      </c>
+      <c r="B419">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>15</v>
+      </c>
+      <c r="B420">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>15</v>
+      </c>
+      <c r="B421">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>16</v>
+      </c>
+      <c r="B422">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>16</v>
+      </c>
+      <c r="B423">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>16</v>
+      </c>
+      <c r="B424">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>16</v>
+      </c>
+      <c r="B425">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>16</v>
+      </c>
+      <c r="B426">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>16</v>
+      </c>
+      <c r="B427">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>16</v>
+      </c>
+      <c r="B428">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>16</v>
+      </c>
+      <c r="B429">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>16</v>
+      </c>
+      <c r="B430">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>16</v>
+      </c>
+      <c r="B431">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>16</v>
+      </c>
+      <c r="B432">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>16</v>
+      </c>
+      <c r="B433">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>16</v>
+      </c>
+      <c r="B434">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>16</v>
+      </c>
+      <c r="B435">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>16</v>
+      </c>
+      <c r="B436">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>16</v>
+      </c>
+      <c r="B437">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>16</v>
+      </c>
+      <c r="B438">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>16</v>
+      </c>
+      <c r="B439">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>16</v>
+      </c>
+      <c r="B440">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>16</v>
+      </c>
+      <c r="B441">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>16</v>
+      </c>
+      <c r="B442">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>16</v>
+      </c>
+      <c r="B443">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>16</v>
+      </c>
+      <c r="B444">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>16</v>
+      </c>
+      <c r="B445">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>16</v>
+      </c>
+      <c r="B446">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>16</v>
+      </c>
+      <c r="B447">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>16</v>
+      </c>
+      <c r="B448">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>16</v>
+      </c>
+      <c r="B449">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>17</v>
+      </c>
+      <c r="B450">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>17</v>
+      </c>
+      <c r="B451">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>17</v>
+      </c>
+      <c r="B452">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>17</v>
+      </c>
+      <c r="B453">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>17</v>
+      </c>
+      <c r="B454">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>17</v>
+      </c>
+      <c r="B455">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>17</v>
+      </c>
+      <c r="B456">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>17</v>
+      </c>
+      <c r="B457">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>17</v>
+      </c>
+      <c r="B458">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>17</v>
+      </c>
+      <c r="B459">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>17</v>
+      </c>
+      <c r="B460">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>17</v>
+      </c>
+      <c r="B461">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>17</v>
+      </c>
+      <c r="B462">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>17</v>
+      </c>
+      <c r="B463">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>17</v>
+      </c>
+      <c r="B464">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>17</v>
+      </c>
+      <c r="B465">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>17</v>
+      </c>
+      <c r="B466">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>17</v>
+      </c>
+      <c r="B467">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>17</v>
+      </c>
+      <c r="B468">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>17</v>
+      </c>
+      <c r="B469">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>17</v>
+      </c>
+      <c r="B470">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>17</v>
+      </c>
+      <c r="B471">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>17</v>
+      </c>
+      <c r="B472">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>17</v>
+      </c>
+      <c r="B473">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>17</v>
+      </c>
+      <c r="B474">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>17</v>
+      </c>
+      <c r="B475">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>17</v>
+      </c>
+      <c r="B476">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>17</v>
+      </c>
+      <c r="B477">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>18</v>
+      </c>
+      <c r="B478">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>18</v>
+      </c>
+      <c r="B479">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>18</v>
+      </c>
+      <c r="B480">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>18</v>
+      </c>
+      <c r="B481">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>18</v>
+      </c>
+      <c r="B482">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>18</v>
+      </c>
+      <c r="B483">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>18</v>
+      </c>
+      <c r="B484">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>18</v>
+      </c>
+      <c r="B485">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>18</v>
+      </c>
+      <c r="B486">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>18</v>
+      </c>
+      <c r="B487">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>18</v>
+      </c>
+      <c r="B488">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>18</v>
+      </c>
+      <c r="B489">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>18</v>
+      </c>
+      <c r="B490">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>18</v>
+      </c>
+      <c r="B491">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>18</v>
+      </c>
+      <c r="B492">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>18</v>
+      </c>
+      <c r="B493">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>18</v>
+      </c>
+      <c r="B494">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>18</v>
+      </c>
+      <c r="B495">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>18</v>
+      </c>
+      <c r="B496">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>18</v>
+      </c>
+      <c r="B497">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>18</v>
+      </c>
+      <c r="B498">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>18</v>
+      </c>
+      <c r="B499">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>18</v>
+      </c>
+      <c r="B500">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>18</v>
+      </c>
+      <c r="B501">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>18</v>
+      </c>
+      <c r="B502">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>18</v>
+      </c>
+      <c r="B503">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>18</v>
+      </c>
+      <c r="B504">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>18</v>
+      </c>
+      <c r="B505">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>19</v>
+      </c>
+      <c r="B506">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>19</v>
+      </c>
+      <c r="B507">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>19</v>
+      </c>
+      <c r="B508">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>19</v>
+      </c>
+      <c r="B509">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>19</v>
+      </c>
+      <c r="B510">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>19</v>
+      </c>
+      <c r="B511">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>19</v>
+      </c>
+      <c r="B512">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>19</v>
+      </c>
+      <c r="B513">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>19</v>
+      </c>
+      <c r="B514">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>19</v>
+      </c>
+      <c r="B515">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>19</v>
+      </c>
+      <c r="B516">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>19</v>
+      </c>
+      <c r="B517">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>19</v>
+      </c>
+      <c r="B518">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>19</v>
+      </c>
+      <c r="B519">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>19</v>
+      </c>
+      <c r="B520">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>19</v>
+      </c>
+      <c r="B521">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>19</v>
+      </c>
+      <c r="B522">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>19</v>
+      </c>
+      <c r="B523">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>19</v>
+      </c>
+      <c r="B524">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>19</v>
+      </c>
+      <c r="B525">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>19</v>
+      </c>
+      <c r="B526">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>19</v>
+      </c>
+      <c r="B527">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>19</v>
+      </c>
+      <c r="B528">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>19</v>
+      </c>
+      <c r="B529">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>19</v>
+      </c>
+      <c r="B530">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>19</v>
+      </c>
+      <c r="B531">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>19</v>
+      </c>
+      <c r="B532">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>19</v>
+      </c>
+      <c r="B533">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>20</v>
+      </c>
+      <c r="B534">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>20</v>
+      </c>
+      <c r="B535">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>20</v>
+      </c>
+      <c r="B536">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>20</v>
+      </c>
+      <c r="B537">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>20</v>
+      </c>
+      <c r="B538">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>20</v>
+      </c>
+      <c r="B539">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>20</v>
+      </c>
+      <c r="B540">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>20</v>
+      </c>
+      <c r="B541">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>20</v>
+      </c>
+      <c r="B542">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>20</v>
+      </c>
+      <c r="B543">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>20</v>
+      </c>
+      <c r="B544">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>20</v>
+      </c>
+      <c r="B545">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>20</v>
+      </c>
+      <c r="B546">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>20</v>
+      </c>
+      <c r="B547">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>20</v>
+      </c>
+      <c r="B548">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>20</v>
+      </c>
+      <c r="B549">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>20</v>
+      </c>
+      <c r="B550">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>20</v>
+      </c>
+      <c r="B551">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>20</v>
+      </c>
+      <c r="B552">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>20</v>
+      </c>
+      <c r="B553">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>20</v>
+      </c>
+      <c r="B554">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>20</v>
+      </c>
+      <c r="B555">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>20</v>
+      </c>
+      <c r="B556">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>20</v>
+      </c>
+      <c r="B557">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>20</v>
+      </c>
+      <c r="B558">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>20</v>
+      </c>
+      <c r="B559">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>20</v>
+      </c>
+      <c r="B560">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>20</v>
+      </c>
+      <c r="B561">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>21</v>
+      </c>
+      <c r="B562">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>21</v>
+      </c>
+      <c r="B563">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>21</v>
+      </c>
+      <c r="B564">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>21</v>
+      </c>
+      <c r="B565">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>21</v>
+      </c>
+      <c r="B566">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>21</v>
+      </c>
+      <c r="B567">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>21</v>
+      </c>
+      <c r="B568">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>21</v>
+      </c>
+      <c r="B569">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>21</v>
+      </c>
+      <c r="B570">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>21</v>
+      </c>
+      <c r="B571">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>21</v>
+      </c>
+      <c r="B572">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>21</v>
+      </c>
+      <c r="B573">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>21</v>
+      </c>
+      <c r="B574">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>21</v>
+      </c>
+      <c r="B575">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>21</v>
+      </c>
+      <c r="B576">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>21</v>
+      </c>
+      <c r="B577">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>21</v>
+      </c>
+      <c r="B578">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>21</v>
+      </c>
+      <c r="B579">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>21</v>
+      </c>
+      <c r="B580">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>21</v>
+      </c>
+      <c r="B581">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>21</v>
+      </c>
+      <c r="B582">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>21</v>
+      </c>
+      <c r="B583">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>21</v>
+      </c>
+      <c r="B584">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>21</v>
+      </c>
+      <c r="B585">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>21</v>
+      </c>
+      <c r="B586">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>21</v>
+      </c>
+      <c r="B587">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>21</v>
+      </c>
+      <c r="B588">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>21</v>
+      </c>
+      <c r="B589">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>22</v>
+      </c>
+      <c r="B590">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>22</v>
+      </c>
+      <c r="B591">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>22</v>
+      </c>
+      <c r="B592">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>22</v>
+      </c>
+      <c r="B593">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>22</v>
+      </c>
+      <c r="B594">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>22</v>
+      </c>
+      <c r="B595">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>22</v>
+      </c>
+      <c r="B596">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>22</v>
+      </c>
+      <c r="B597">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>22</v>
+      </c>
+      <c r="B598">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>22</v>
+      </c>
+      <c r="B599">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>22</v>
+      </c>
+      <c r="B600">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>22</v>
+      </c>
+      <c r="B601">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>22</v>
+      </c>
+      <c r="B602">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>22</v>
+      </c>
+      <c r="B603">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>22</v>
+      </c>
+      <c r="B604">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>22</v>
+      </c>
+      <c r="B605">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>22</v>
+      </c>
+      <c r="B606">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>22</v>
+      </c>
+      <c r="B607">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>22</v>
+      </c>
+      <c r="B608">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>22</v>
+      </c>
+      <c r="B609">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>22</v>
+      </c>
+      <c r="B610">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>22</v>
+      </c>
+      <c r="B611">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>22</v>
+      </c>
+      <c r="B612">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>22</v>
+      </c>
+      <c r="B613">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>22</v>
+      </c>
+      <c r="B614">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>22</v>
+      </c>
+      <c r="B615">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>22</v>
+      </c>
+      <c r="B616">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>22</v>
+      </c>
+      <c r="B617">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>23</v>
+      </c>
+      <c r="B618">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>23</v>
+      </c>
+      <c r="B619">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>23</v>
+      </c>
+      <c r="B620">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>23</v>
+      </c>
+      <c r="B621">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>23</v>
+      </c>
+      <c r="B622">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>23</v>
+      </c>
+      <c r="B623">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>23</v>
+      </c>
+      <c r="B624">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>23</v>
+      </c>
+      <c r="B625">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>23</v>
+      </c>
+      <c r="B626">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>23</v>
+      </c>
+      <c r="B627">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>23</v>
+      </c>
+      <c r="B628">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>23</v>
+      </c>
+      <c r="B629">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>23</v>
+      </c>
+      <c r="B630">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>23</v>
+      </c>
+      <c r="B631">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>23</v>
+      </c>
+      <c r="B632">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>23</v>
+      </c>
+      <c r="B633">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>23</v>
+      </c>
+      <c r="B634">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>23</v>
+      </c>
+      <c r="B635">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>23</v>
+      </c>
+      <c r="B636">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>23</v>
+      </c>
+      <c r="B637">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>23</v>
+      </c>
+      <c r="B638">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>23</v>
+      </c>
+      <c r="B639">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>23</v>
+      </c>
+      <c r="B640">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>23</v>
+      </c>
+      <c r="B641">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>23</v>
+      </c>
+      <c r="B642">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>23</v>
+      </c>
+      <c r="B643">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>23</v>
+      </c>
+      <c r="B644">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>23</v>
+      </c>
+      <c r="B645">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>24</v>
+      </c>
+      <c r="B646">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>24</v>
+      </c>
+      <c r="B647">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>24</v>
+      </c>
+      <c r="B648">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>24</v>
+      </c>
+      <c r="B649">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>24</v>
+      </c>
+      <c r="B650">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>24</v>
+      </c>
+      <c r="B651">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>24</v>
+      </c>
+      <c r="B652">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>24</v>
+      </c>
+      <c r="B653">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>24</v>
+      </c>
+      <c r="B654">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>24</v>
+      </c>
+      <c r="B655">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>24</v>
+      </c>
+      <c r="B656">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>24</v>
+      </c>
+      <c r="B657">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>24</v>
+      </c>
+      <c r="B658">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>24</v>
+      </c>
+      <c r="B659">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>24</v>
+      </c>
+      <c r="B660">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>24</v>
+      </c>
+      <c r="B661">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>24</v>
+      </c>
+      <c r="B662">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>24</v>
+      </c>
+      <c r="B663">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>24</v>
+      </c>
+      <c r="B664">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>24</v>
+      </c>
+      <c r="B665">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>24</v>
+      </c>
+      <c r="B666">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>24</v>
+      </c>
+      <c r="B667">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>24</v>
+      </c>
+      <c r="B668">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>24</v>
+      </c>
+      <c r="B669">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>24</v>
+      </c>
+      <c r="B670">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>24</v>
+      </c>
+      <c r="B671">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>24</v>
+      </c>
+      <c r="B672">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>24</v>
+      </c>
+      <c r="B673">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>25</v>
+      </c>
+      <c r="B674">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>25</v>
+      </c>
+      <c r="B675">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>25</v>
+      </c>
+      <c r="B676">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>25</v>
+      </c>
+      <c r="B677">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>25</v>
+      </c>
+      <c r="B678">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>25</v>
+      </c>
+      <c r="B679">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>25</v>
+      </c>
+      <c r="B680">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>25</v>
+      </c>
+      <c r="B681">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>25</v>
+      </c>
+      <c r="B682">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>25</v>
+      </c>
+      <c r="B683">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>25</v>
+      </c>
+      <c r="B684">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>25</v>
+      </c>
+      <c r="B685">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>25</v>
+      </c>
+      <c r="B686">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>25</v>
+      </c>
+      <c r="B687">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>25</v>
+      </c>
+      <c r="B688">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>25</v>
+      </c>
+      <c r="B689">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>25</v>
+      </c>
+      <c r="B690">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>25</v>
+      </c>
+      <c r="B691">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>25</v>
+      </c>
+      <c r="B692">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>25</v>
+      </c>
+      <c r="B693">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>25</v>
+      </c>
+      <c r="B694">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>25</v>
+      </c>
+      <c r="B695">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>25</v>
+      </c>
+      <c r="B696">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>25</v>
+      </c>
+      <c r="B697">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>25</v>
+      </c>
+      <c r="B698">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>25</v>
+      </c>
+      <c r="B699">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>25</v>
+      </c>
+      <c r="B700">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>25</v>
+      </c>
+      <c r="B701">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>26</v>
+      </c>
+      <c r="B702">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>26</v>
+      </c>
+      <c r="B703">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>26</v>
+      </c>
+      <c r="B704">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>26</v>
+      </c>
+      <c r="B705">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>26</v>
+      </c>
+      <c r="B706">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>26</v>
+      </c>
+      <c r="B707">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>26</v>
+      </c>
+      <c r="B708">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>26</v>
+      </c>
+      <c r="B709">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>26</v>
+      </c>
+      <c r="B710">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>26</v>
+      </c>
+      <c r="B711">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>26</v>
+      </c>
+      <c r="B712">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>26</v>
+      </c>
+      <c r="B713">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>26</v>
+      </c>
+      <c r="B714">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>26</v>
+      </c>
+      <c r="B715">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>26</v>
+      </c>
+      <c r="B716">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>26</v>
+      </c>
+      <c r="B717">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>26</v>
+      </c>
+      <c r="B718">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>26</v>
+      </c>
+      <c r="B719">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>26</v>
+      </c>
+      <c r="B720">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>26</v>
+      </c>
+      <c r="B721">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>26</v>
+      </c>
+      <c r="B722">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>26</v>
+      </c>
+      <c r="B723">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>26</v>
+      </c>
+      <c r="B724">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>26</v>
+      </c>
+      <c r="B725">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>26</v>
+      </c>
+      <c r="B726">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>26</v>
+      </c>
+      <c r="B727">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>26</v>
+      </c>
+      <c r="B728">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>26</v>
+      </c>
+      <c r="B729">
+        <v>728</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PaperNeural/ResultsControl.xlsx
+++ b/PaperNeural/ResultsControl.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Compartilhada Alessando e Fabio\Clinic 09.03.2016\Programs\oliveirafhm\code_paper_journal_2017\PaperNeural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliveirafhm/Dropbox/Compartilhada Alessando e Fabio/Clinic 09.03.2016/Programs/oliveirafhm/code_paper_journal_2017/PaperNeural/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-25605" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="500"/>
+    <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -492,17 +492,17 @@
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I1">
+    <sortState ref="A2:I27">
+      <sortCondition ref="A1:A27"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1304,9 +1308,9 @@
       <selection pane="bottomLeft" activeCell="A1481" sqref="A1481"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1597,7 +1601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1605,7 +1609,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1629,7 +1633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1645,7 +1649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1653,7 +1657,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1661,7 +1665,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1669,7 +1673,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1693,7 +1697,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1701,7 +1705,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1709,7 +1713,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1717,7 +1721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1725,7 +1729,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1733,7 +1737,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1741,7 +1745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -1757,7 +1761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1765,7 +1769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1773,7 +1777,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -1781,7 +1785,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1789,7 +1793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1797,7 +1801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3</v>
       </c>
@@ -1805,7 +1809,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1813,7 +1817,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1821,7 +1825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1829,7 +1833,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
@@ -1837,7 +1841,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3</v>
       </c>
@@ -1845,7 +1849,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3</v>
       </c>
@@ -1853,7 +1857,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3</v>
       </c>
@@ -1861,7 +1865,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1869,7 +1873,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3</v>
       </c>
@@ -1877,7 +1881,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3</v>
       </c>
@@ -1885,7 +1889,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3</v>
       </c>
@@ -1893,7 +1897,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3</v>
       </c>
@@ -1901,7 +1905,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -1909,7 +1913,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3</v>
       </c>
@@ -1917,7 +1921,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3</v>
       </c>
@@ -1925,7 +1929,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3</v>
       </c>
@@ -1933,7 +1937,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3</v>
       </c>
@@ -1941,7 +1945,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3</v>
       </c>
@@ -1949,7 +1953,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3</v>
       </c>
@@ -1957,7 +1961,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -1965,7 +1969,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3</v>
       </c>
@@ -1973,7 +1977,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3</v>
       </c>
@@ -1981,7 +1985,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4</v>
       </c>
@@ -1997,7 +2001,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4</v>
       </c>
@@ -2005,7 +2009,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2013,7 +2017,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2021,7 +2025,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4</v>
       </c>
@@ -2029,7 +2033,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2037,7 +2041,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2045,7 +2049,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2053,7 +2057,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2061,7 +2065,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2069,7 +2073,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2077,7 +2081,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2085,7 +2089,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2093,7 +2097,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2101,7 +2105,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2109,7 +2113,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2117,7 +2121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4</v>
       </c>
@@ -2133,7 +2137,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4</v>
       </c>
@@ -2141,7 +2145,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4</v>
       </c>
@@ -2149,7 +2153,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>4</v>
       </c>
@@ -2157,7 +2161,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4</v>
       </c>
@@ -2165,7 +2169,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4</v>
       </c>
@@ -2173,7 +2177,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4</v>
       </c>
@@ -2181,7 +2185,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4</v>
       </c>
@@ -2189,7 +2193,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4</v>
       </c>
@@ -2197,7 +2201,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>4</v>
       </c>
@@ -2205,7 +2209,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4</v>
       </c>
@@ -2213,7 +2217,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>5</v>
       </c>
@@ -2221,7 +2225,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>5</v>
       </c>
@@ -2229,7 +2233,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>5</v>
       </c>
@@ -2237,7 +2241,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>5</v>
       </c>
@@ -2245,7 +2249,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>5</v>
       </c>
@@ -2253,7 +2257,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>5</v>
       </c>
@@ -2261,7 +2265,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>5</v>
       </c>
@@ -2269,7 +2273,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>5</v>
       </c>
@@ -2277,7 +2281,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>5</v>
       </c>
@@ -2285,7 +2289,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>5</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>5</v>
       </c>
@@ -2301,7 +2305,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>5</v>
       </c>
@@ -2309,7 +2313,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>5</v>
       </c>
@@ -2317,7 +2321,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>5</v>
       </c>
@@ -2325,7 +2329,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>5</v>
       </c>
@@ -2333,7 +2337,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>5</v>
       </c>
@@ -2341,7 +2345,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>5</v>
       </c>
@@ -2349,7 +2353,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>5</v>
       </c>
@@ -2357,7 +2361,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>5</v>
       </c>
@@ -2365,7 +2369,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>5</v>
       </c>
@@ -2373,7 +2377,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>5</v>
       </c>
@@ -2381,7 +2385,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>5</v>
       </c>
@@ -2389,7 +2393,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>5</v>
       </c>
@@ -2397,7 +2401,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>5</v>
       </c>
@@ -2405,7 +2409,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>5</v>
       </c>
@@ -2413,7 +2417,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>5</v>
       </c>
@@ -2421,7 +2425,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>5</v>
       </c>
@@ -2429,7 +2433,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>5</v>
       </c>
@@ -2437,7 +2441,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>6</v>
       </c>
@@ -2445,7 +2449,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>6</v>
       </c>
@@ -2453,7 +2457,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>6</v>
       </c>
@@ -2461,7 +2465,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>6</v>
       </c>
@@ -2469,7 +2473,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>6</v>
       </c>
@@ -2477,7 +2481,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>6</v>
       </c>
@@ -2485,7 +2489,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>6</v>
       </c>
@@ -2493,7 +2497,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>6</v>
       </c>
@@ -2501,7 +2505,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>6</v>
       </c>
@@ -2509,7 +2513,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>6</v>
       </c>
@@ -2517,7 +2521,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>6</v>
       </c>
@@ -2525,7 +2529,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>6</v>
       </c>
@@ -2533,7 +2537,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>6</v>
       </c>
@@ -2541,7 +2545,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>6</v>
       </c>
@@ -2549,7 +2553,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>6</v>
       </c>
@@ -2557,7 +2561,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>6</v>
       </c>
@@ -2565,7 +2569,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>6</v>
       </c>
@@ -2573,7 +2577,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>6</v>
       </c>
@@ -2581,7 +2585,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>6</v>
       </c>
@@ -2589,7 +2593,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>6</v>
       </c>
@@ -2597,7 +2601,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>6</v>
       </c>
@@ -2605,7 +2609,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>6</v>
       </c>
@@ -2613,7 +2617,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>6</v>
       </c>
@@ -2621,7 +2625,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>6</v>
       </c>
@@ -2629,7 +2633,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>6</v>
       </c>
@@ -2637,7 +2641,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>6</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>6</v>
       </c>
@@ -2653,7 +2657,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>6</v>
       </c>
@@ -2661,7 +2665,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>7</v>
       </c>
@@ -2669,7 +2673,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>7</v>
       </c>
@@ -2677,7 +2681,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>7</v>
       </c>
@@ -2685,7 +2689,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>7</v>
       </c>
@@ -2693,7 +2697,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>7</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>7</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>7</v>
       </c>
@@ -2717,7 +2721,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>7</v>
       </c>
@@ -2725,7 +2729,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>7</v>
       </c>
@@ -2733,7 +2737,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>7</v>
       </c>
@@ -2741,7 +2745,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>7</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>7</v>
       </c>
@@ -2757,7 +2761,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>7</v>
       </c>
@@ -2765,7 +2769,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>7</v>
       </c>
@@ -2773,7 +2777,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>7</v>
       </c>
@@ -2781,7 +2785,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>7</v>
       </c>
@@ -2789,7 +2793,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>7</v>
       </c>
@@ -2797,7 +2801,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>7</v>
       </c>
@@ -2805,7 +2809,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>7</v>
       </c>
@@ -2813,7 +2817,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>7</v>
       </c>
@@ -2821,7 +2825,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>7</v>
       </c>
@@ -2829,7 +2833,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>7</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>7</v>
       </c>
@@ -2845,7 +2849,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>7</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>7</v>
       </c>
@@ -2861,7 +2865,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>7</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>7</v>
       </c>
@@ -2877,7 +2881,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>7</v>
       </c>
@@ -2885,7 +2889,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>8</v>
       </c>
@@ -2893,7 +2897,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>8</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>8</v>
       </c>
@@ -2909,7 +2913,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>8</v>
       </c>
@@ -2917,7 +2921,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>8</v>
       </c>
@@ -2925,7 +2929,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>8</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>8</v>
       </c>
@@ -2941,7 +2945,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>8</v>
       </c>
@@ -2949,7 +2953,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>8</v>
       </c>
@@ -2957,7 +2961,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>8</v>
       </c>
@@ -2965,7 +2969,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>8</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>8</v>
       </c>
@@ -2981,7 +2985,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>8</v>
       </c>
@@ -2989,7 +2993,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>8</v>
       </c>
@@ -2997,7 +3001,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>8</v>
       </c>
@@ -3005,7 +3009,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>8</v>
       </c>
@@ -3013,7 +3017,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>8</v>
       </c>
@@ -3021,7 +3025,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>8</v>
       </c>
@@ -3029,7 +3033,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>8</v>
       </c>
@@ -3037,7 +3041,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>8</v>
       </c>
@@ -3045,7 +3049,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>8</v>
       </c>
@@ -3053,7 +3057,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>8</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>8</v>
       </c>
@@ -3069,7 +3073,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>8</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>8</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>8</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>8</v>
       </c>
@@ -3101,7 +3105,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>8</v>
       </c>
@@ -3109,7 +3113,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>9</v>
       </c>
@@ -3117,7 +3121,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>9</v>
       </c>
@@ -3125,7 +3129,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>9</v>
       </c>
@@ -3133,7 +3137,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>9</v>
       </c>
@@ -3141,7 +3145,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>9</v>
       </c>
@@ -3149,7 +3153,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>9</v>
       </c>
@@ -3157,7 +3161,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>9</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>9</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>9</v>
       </c>
@@ -3181,7 +3185,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>9</v>
       </c>
@@ -3189,7 +3193,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>9</v>
       </c>
@@ -3197,7 +3201,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>9</v>
       </c>
@@ -3205,7 +3209,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>9</v>
       </c>
@@ -3213,7 +3217,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>9</v>
       </c>
@@ -3221,7 +3225,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>9</v>
       </c>
@@ -3229,7 +3233,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>9</v>
       </c>
@@ -3237,7 +3241,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>9</v>
       </c>
@@ -3245,7 +3249,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>9</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>9</v>
       </c>
@@ -3261,7 +3265,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>9</v>
       </c>
@@ -3269,7 +3273,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>9</v>
       </c>
@@ -3277,7 +3281,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>9</v>
       </c>
@@ -3285,7 +3289,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>9</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>9</v>
       </c>
@@ -3301,7 +3305,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>9</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>9</v>
       </c>
@@ -3317,7 +3321,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>9</v>
       </c>
@@ -3325,7 +3329,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>9</v>
       </c>
@@ -3333,7 +3337,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>10</v>
       </c>
@@ -3341,7 +3345,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>10</v>
       </c>
@@ -3349,7 +3353,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>10</v>
       </c>
@@ -3357,7 +3361,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>10</v>
       </c>
@@ -3365,7 +3369,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>10</v>
       </c>
@@ -3373,7 +3377,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>10</v>
       </c>
@@ -3381,7 +3385,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>10</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>10</v>
       </c>
@@ -3397,7 +3401,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>10</v>
       </c>
@@ -3405,7 +3409,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>10</v>
       </c>
@@ -3413,7 +3417,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>10</v>
       </c>
@@ -3421,7 +3425,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>10</v>
       </c>
@@ -3429,7 +3433,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>10</v>
       </c>
@@ -3437,7 +3441,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>10</v>
       </c>
@@ -3445,7 +3449,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>10</v>
       </c>
@@ -3453,7 +3457,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>10</v>
       </c>
@@ -3461,7 +3465,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>10</v>
       </c>
@@ -3469,7 +3473,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>10</v>
       </c>
@@ -3477,7 +3481,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>10</v>
       </c>
@@ -3485,7 +3489,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>10</v>
       </c>
@@ -3493,7 +3497,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>10</v>
       </c>
@@ -3501,7 +3505,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>10</v>
       </c>
@@ -3509,7 +3513,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>10</v>
       </c>
@@ -3517,7 +3521,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>10</v>
       </c>
@@ -3525,7 +3529,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>10</v>
       </c>
@@ -3533,7 +3537,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>10</v>
       </c>
@@ -3541,7 +3545,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>10</v>
       </c>
@@ -3549,7 +3553,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>10</v>
       </c>
@@ -3557,7 +3561,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>11</v>
       </c>
@@ -3565,7 +3569,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>11</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>11</v>
       </c>
@@ -3581,7 +3585,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>11</v>
       </c>
@@ -3589,7 +3593,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>11</v>
       </c>
@@ -3597,7 +3601,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>11</v>
       </c>
@@ -3605,7 +3609,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>11</v>
       </c>
@@ -3613,7 +3617,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>11</v>
       </c>
@@ -3621,7 +3625,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>11</v>
       </c>
@@ -3629,7 +3633,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>11</v>
       </c>
@@ -3637,7 +3641,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>11</v>
       </c>
@@ -3645,7 +3649,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>11</v>
       </c>
@@ -3653,7 +3657,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>11</v>
       </c>
@@ -3661,7 +3665,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>11</v>
       </c>
@@ -3669,7 +3673,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>11</v>
       </c>
@@ -3677,7 +3681,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>11</v>
       </c>
@@ -3685,7 +3689,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>11</v>
       </c>
@@ -3693,7 +3697,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>11</v>
       </c>
@@ -3701,7 +3705,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>11</v>
       </c>
@@ -3709,7 +3713,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>11</v>
       </c>
@@ -3717,7 +3721,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>11</v>
       </c>
@@ -3725,7 +3729,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>11</v>
       </c>
@@ -3733,7 +3737,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>11</v>
       </c>
@@ -3741,7 +3745,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>11</v>
       </c>
@@ -3749,7 +3753,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>11</v>
       </c>
@@ -3757,7 +3761,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>11</v>
       </c>
@@ -3765,7 +3769,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>11</v>
       </c>
@@ -3773,7 +3777,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>11</v>
       </c>
@@ -3781,7 +3785,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>12</v>
       </c>
@@ -3789,7 +3793,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>12</v>
       </c>
@@ -3797,7 +3801,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>12</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>12</v>
       </c>
@@ -3813,7 +3817,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>12</v>
       </c>
@@ -3821,7 +3825,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>12</v>
       </c>
@@ -3829,7 +3833,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>12</v>
       </c>
@@ -3837,7 +3841,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>12</v>
       </c>
@@ -3845,7 +3849,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>12</v>
       </c>
@@ -3853,7 +3857,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>12</v>
       </c>
@@ -3861,7 +3865,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>12</v>
       </c>
@@ -3869,7 +3873,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>12</v>
       </c>
@@ -3877,7 +3881,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>12</v>
       </c>
@@ -3885,7 +3889,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>12</v>
       </c>
@@ -3893,7 +3897,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>12</v>
       </c>
@@ -3901,7 +3905,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>12</v>
       </c>
@@ -3909,7 +3913,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>12</v>
       </c>
@@ -3917,7 +3921,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>12</v>
       </c>
@@ -3925,7 +3929,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>12</v>
       </c>
@@ -3933,7 +3937,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>12</v>
       </c>
@@ -3941,7 +3945,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>12</v>
       </c>
@@ -3949,7 +3953,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>12</v>
       </c>
@@ -3957,7 +3961,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>12</v>
       </c>
@@ -3965,7 +3969,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>12</v>
       </c>
@@ -3973,7 +3977,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>12</v>
       </c>
@@ -3981,7 +3985,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>12</v>
       </c>
@@ -3989,7 +3993,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>12</v>
       </c>
@@ -3997,7 +4001,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>12</v>
       </c>
@@ -4005,7 +4009,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>13</v>
       </c>
@@ -4013,7 +4017,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>13</v>
       </c>
@@ -4021,7 +4025,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>13</v>
       </c>
@@ -4029,7 +4033,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>13</v>
       </c>
@@ -4037,7 +4041,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>13</v>
       </c>
@@ -4045,7 +4049,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>13</v>
       </c>
@@ -4053,7 +4057,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>13</v>
       </c>
@@ -4061,7 +4065,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>13</v>
       </c>
@@ -4069,7 +4073,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>13</v>
       </c>
@@ -4077,7 +4081,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>13</v>
       </c>
@@ -4085,7 +4089,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>13</v>
       </c>
@@ -4093,7 +4097,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>13</v>
       </c>
@@ -4101,7 +4105,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>13</v>
       </c>
@@ -4109,7 +4113,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>13</v>
       </c>
@@ -4117,7 +4121,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>13</v>
       </c>
@@ -4125,7 +4129,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>13</v>
       </c>
@@ -4133,7 +4137,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>13</v>
       </c>
@@ -4141,7 +4145,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>13</v>
       </c>
@@ -4149,7 +4153,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>13</v>
       </c>
@@ -4157,7 +4161,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>13</v>
       </c>
@@ -4165,7 +4169,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>13</v>
       </c>
@@ -4173,7 +4177,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>13</v>
       </c>
@@ -4181,7 +4185,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>13</v>
       </c>
@@ -4189,7 +4193,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>13</v>
       </c>
@@ -4197,7 +4201,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>13</v>
       </c>
@@ -4205,7 +4209,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>13</v>
       </c>
@@ -4213,7 +4217,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>13</v>
       </c>
@@ -4221,7 +4225,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>13</v>
       </c>
@@ -4229,7 +4233,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>14</v>
       </c>
@@ -4237,7 +4241,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>14</v>
       </c>
@@ -4245,7 +4249,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>14</v>
       </c>
@@ -4253,7 +4257,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>14</v>
       </c>
@@ -4261,7 +4265,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>14</v>
       </c>
@@ -4269,7 +4273,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>14</v>
       </c>
@@ -4277,7 +4281,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>14</v>
       </c>
@@ -4285,7 +4289,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>14</v>
       </c>
@@ -4293,7 +4297,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>14</v>
       </c>
@@ -4301,7 +4305,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>14</v>
       </c>
@@ -4309,7 +4313,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>14</v>
       </c>
@@ -4317,7 +4321,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>14</v>
       </c>
@@ -4325,7 +4329,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>14</v>
       </c>
@@ -4333,7 +4337,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>14</v>
       </c>
@@ -4341,7 +4345,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>14</v>
       </c>
@@ -4349,7 +4353,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>14</v>
       </c>
@@ -4357,7 +4361,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>14</v>
       </c>
@@ -4365,7 +4369,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>14</v>
       </c>
@@ -4373,7 +4377,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>14</v>
       </c>
@@ -4381,7 +4385,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>14</v>
       </c>
@@ -4389,7 +4393,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>14</v>
       </c>
@@ -4397,7 +4401,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>14</v>
       </c>
@@ -4405,7 +4409,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>14</v>
       </c>
@@ -4413,7 +4417,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>14</v>
       </c>
@@ -4421,7 +4425,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>14</v>
       </c>
@@ -4429,7 +4433,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>14</v>
       </c>
@@ -4437,7 +4441,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>14</v>
       </c>
@@ -4445,7 +4449,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>14</v>
       </c>
@@ -4453,7 +4457,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>15</v>
       </c>
@@ -4461,7 +4465,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>15</v>
       </c>
@@ -4469,7 +4473,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>15</v>
       </c>
@@ -4477,7 +4481,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>15</v>
       </c>
@@ -4485,7 +4489,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>15</v>
       </c>
@@ -4493,7 +4497,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>15</v>
       </c>
@@ -4501,7 +4505,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>15</v>
       </c>
@@ -4509,7 +4513,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>15</v>
       </c>
@@ -4517,7 +4521,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>15</v>
       </c>
@@ -4525,7 +4529,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>15</v>
       </c>
@@ -4533,7 +4537,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>15</v>
       </c>
@@ -4541,7 +4545,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>15</v>
       </c>
@@ -4549,7 +4553,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>15</v>
       </c>
@@ -4557,7 +4561,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>15</v>
       </c>
@@ -4565,7 +4569,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>15</v>
       </c>
@@ -4573,7 +4577,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>15</v>
       </c>
@@ -4581,7 +4585,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>15</v>
       </c>
@@ -4589,7 +4593,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>15</v>
       </c>
@@ -4597,7 +4601,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>15</v>
       </c>
@@ -4605,7 +4609,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>15</v>
       </c>
@@ -4613,7 +4617,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>15</v>
       </c>
@@ -4621,7 +4625,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>15</v>
       </c>
@@ -4629,7 +4633,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>15</v>
       </c>
@@ -4637,7 +4641,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>15</v>
       </c>
@@ -4645,7 +4649,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>15</v>
       </c>
@@ -4653,7 +4657,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>15</v>
       </c>
@@ -4661,7 +4665,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>15</v>
       </c>
@@ -4669,7 +4673,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>15</v>
       </c>
@@ -4677,7 +4681,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>16</v>
       </c>
@@ -4685,7 +4689,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>16</v>
       </c>
@@ -4693,7 +4697,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>16</v>
       </c>
@@ -4701,7 +4705,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>16</v>
       </c>
@@ -4709,7 +4713,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>16</v>
       </c>
@@ -4717,7 +4721,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>16</v>
       </c>
@@ -4725,7 +4729,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>16</v>
       </c>
@@ -4733,7 +4737,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>16</v>
       </c>
@@ -4741,7 +4745,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>16</v>
       </c>
@@ -4749,7 +4753,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>16</v>
       </c>
@@ -4757,7 +4761,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>16</v>
       </c>
@@ -4765,7 +4769,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>16</v>
       </c>
@@ -4773,7 +4777,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>16</v>
       </c>
@@ -4781,7 +4785,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>16</v>
       </c>
@@ -4789,7 +4793,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>16</v>
       </c>
@@ -4797,7 +4801,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>16</v>
       </c>
@@ -4805,7 +4809,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>16</v>
       </c>
@@ -4813,7 +4817,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>16</v>
       </c>
@@ -4821,7 +4825,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>16</v>
       </c>
@@ -4829,7 +4833,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>16</v>
       </c>
@@ -4837,7 +4841,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>16</v>
       </c>
@@ -4845,7 +4849,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>16</v>
       </c>
@@ -4853,7 +4857,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>16</v>
       </c>
@@ -4861,7 +4865,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>16</v>
       </c>
@@ -4869,7 +4873,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>16</v>
       </c>
@@ -4877,7 +4881,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>16</v>
       </c>
@@ -4885,7 +4889,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>16</v>
       </c>
@@ -4893,7 +4897,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>16</v>
       </c>
@@ -4901,7 +4905,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>17</v>
       </c>
@@ -4909,7 +4913,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>17</v>
       </c>
@@ -4917,7 +4921,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>17</v>
       </c>
@@ -4925,7 +4929,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>17</v>
       </c>
@@ -4933,7 +4937,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>17</v>
       </c>
@@ -4941,7 +4945,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>17</v>
       </c>
@@ -4949,7 +4953,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>17</v>
       </c>
@@ -4957,7 +4961,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>17</v>
       </c>
@@ -4965,7 +4969,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>17</v>
       </c>
@@ -4973,7 +4977,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>17</v>
       </c>
@@ -4981,7 +4985,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>17</v>
       </c>
@@ -4989,7 +4993,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>17</v>
       </c>
@@ -4997,7 +5001,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>17</v>
       </c>
@@ -5005,7 +5009,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>17</v>
       </c>
@@ -5013,7 +5017,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>17</v>
       </c>
@@ -5021,7 +5025,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>17</v>
       </c>
@@ -5029,7 +5033,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>17</v>
       </c>
@@ -5037,7 +5041,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>17</v>
       </c>
@@ -5045,7 +5049,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>17</v>
       </c>
@@ -5053,7 +5057,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>17</v>
       </c>
@@ -5061,7 +5065,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>17</v>
       </c>
@@ -5069,7 +5073,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>17</v>
       </c>
@@ -5077,7 +5081,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>17</v>
       </c>
@@ -5085,7 +5089,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>17</v>
       </c>
@@ -5093,7 +5097,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>17</v>
       </c>
@@ -5101,7 +5105,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>17</v>
       </c>
@@ -5109,7 +5113,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>17</v>
       </c>
@@ -5117,7 +5121,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>17</v>
       </c>
@@ -5125,7 +5129,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>18</v>
       </c>
@@ -5133,7 +5137,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>18</v>
       </c>
@@ -5141,7 +5145,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>18</v>
       </c>
@@ -5149,7 +5153,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>18</v>
       </c>
@@ -5157,7 +5161,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>18</v>
       </c>
@@ -5165,7 +5169,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>18</v>
       </c>
@@ -5173,7 +5177,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>18</v>
       </c>
@@ -5181,7 +5185,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>18</v>
       </c>
@@ -5189,7 +5193,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>18</v>
       </c>
@@ -5197,7 +5201,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>18</v>
       </c>
@@ -5205,7 +5209,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>18</v>
       </c>
@@ -5213,7 +5217,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>18</v>
       </c>
@@ -5221,7 +5225,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>18</v>
       </c>
@@ -5229,7 +5233,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>18</v>
       </c>
@@ -5237,7 +5241,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>18</v>
       </c>
@@ -5245,7 +5249,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>18</v>
       </c>
@@ -5253,7 +5257,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>18</v>
       </c>
@@ -5261,7 +5265,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>18</v>
       </c>
@@ -5269,7 +5273,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>18</v>
       </c>
@@ -5277,7 +5281,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>18</v>
       </c>
@@ -5285,7 +5289,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>18</v>
       </c>
@@ -5293,7 +5297,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>18</v>
       </c>
@@ -5301,7 +5305,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>18</v>
       </c>
@@ -5309,7 +5313,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>18</v>
       </c>
@@ -5317,7 +5321,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>18</v>
       </c>
@@ -5325,7 +5329,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>18</v>
       </c>
@@ -5333,7 +5337,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>18</v>
       </c>
@@ -5341,7 +5345,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>18</v>
       </c>
@@ -5349,7 +5353,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>19</v>
       </c>
@@ -5357,7 +5361,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>19</v>
       </c>
@@ -5365,7 +5369,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>19</v>
       </c>
@@ -5373,7 +5377,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>19</v>
       </c>
@@ -5381,7 +5385,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>19</v>
       </c>
@@ -5389,7 +5393,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>19</v>
       </c>
@@ -5397,7 +5401,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>19</v>
       </c>
@@ -5405,7 +5409,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>19</v>
       </c>
@@ -5413,7 +5417,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>19</v>
       </c>
@@ -5421,7 +5425,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>19</v>
       </c>
@@ -5429,7 +5433,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>19</v>
       </c>
@@ -5437,7 +5441,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>19</v>
       </c>
@@ -5445,7 +5449,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>19</v>
       </c>
@@ -5453,7 +5457,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>19</v>
       </c>
@@ -5461,7 +5465,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>19</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>19</v>
       </c>
@@ -5477,7 +5481,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>19</v>
       </c>
@@ -5485,7 +5489,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>19</v>
       </c>
@@ -5493,7 +5497,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>19</v>
       </c>
@@ -5501,7 +5505,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>19</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>19</v>
       </c>
@@ -5517,7 +5521,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>19</v>
       </c>
@@ -5525,7 +5529,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>19</v>
       </c>
@@ -5533,7 +5537,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>19</v>
       </c>
@@ -5541,7 +5545,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>19</v>
       </c>
@@ -5549,7 +5553,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>19</v>
       </c>
@@ -5557,7 +5561,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>19</v>
       </c>
@@ -5565,7 +5569,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>19</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>20</v>
       </c>
@@ -5581,7 +5585,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>20</v>
       </c>
@@ -5589,7 +5593,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>20</v>
       </c>
@@ -5597,7 +5601,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>20</v>
       </c>
@@ -5605,7 +5609,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>20</v>
       </c>
@@ -5613,7 +5617,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>20</v>
       </c>
@@ -5621,7 +5625,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>20</v>
       </c>
@@ -5629,7 +5633,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>20</v>
       </c>
@@ -5637,7 +5641,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>20</v>
       </c>
@@ -5645,7 +5649,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>20</v>
       </c>
@@ -5653,7 +5657,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>20</v>
       </c>
@@ -5661,7 +5665,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>20</v>
       </c>
@@ -5669,7 +5673,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>20</v>
       </c>
@@ -5677,7 +5681,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>20</v>
       </c>
@@ -5685,7 +5689,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>20</v>
       </c>
@@ -5693,7 +5697,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>20</v>
       </c>
@@ -5701,7 +5705,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>20</v>
       </c>
@@ -5709,7 +5713,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>20</v>
       </c>
@@ -5717,7 +5721,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>20</v>
       </c>
@@ -5725,7 +5729,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>20</v>
       </c>
@@ -5733,7 +5737,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>20</v>
       </c>
@@ -5741,7 +5745,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>20</v>
       </c>
@@ -5749,7 +5753,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>20</v>
       </c>
@@ -5757,7 +5761,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>20</v>
       </c>
@@ -5765,7 +5769,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>20</v>
       </c>
@@ -5773,7 +5777,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>20</v>
       </c>
@@ -5781,7 +5785,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>20</v>
       </c>
@@ -5789,7 +5793,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>20</v>
       </c>
@@ -5797,7 +5801,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>21</v>
       </c>
@@ -5805,7 +5809,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>21</v>
       </c>
@@ -5813,7 +5817,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>21</v>
       </c>
@@ -5821,7 +5825,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>21</v>
       </c>
@@ -5829,7 +5833,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>21</v>
       </c>
@@ -5837,7 +5841,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>21</v>
       </c>
@@ -5845,7 +5849,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>21</v>
       </c>
@@ -5853,7 +5857,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>21</v>
       </c>
@@ -5861,7 +5865,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>21</v>
       </c>
@@ -5869,7 +5873,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>21</v>
       </c>
@@ -5877,7 +5881,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>21</v>
       </c>
@@ -5885,7 +5889,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>21</v>
       </c>
@@ -5893,7 +5897,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>21</v>
       </c>
@@ -5901,7 +5905,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>21</v>
       </c>
@@ -5909,7 +5913,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>21</v>
       </c>
@@ -5917,7 +5921,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>21</v>
       </c>
@@ -5925,7 +5929,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>21</v>
       </c>
@@ -5933,7 +5937,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>21</v>
       </c>
@@ -5941,7 +5945,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>21</v>
       </c>
@@ -5949,7 +5953,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>21</v>
       </c>
@@ -5957,7 +5961,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>21</v>
       </c>
@@ -5965,7 +5969,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>21</v>
       </c>
@@ -5973,7 +5977,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>21</v>
       </c>
@@ -5981,7 +5985,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>21</v>
       </c>
@@ -5989,7 +5993,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>21</v>
       </c>
@@ -5997,7 +6001,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>21</v>
       </c>
@@ -6005,7 +6009,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>21</v>
       </c>
@@ -6013,7 +6017,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>21</v>
       </c>
@@ -6021,7 +6025,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>22</v>
       </c>
@@ -6029,7 +6033,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>22</v>
       </c>
@@ -6037,7 +6041,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>22</v>
       </c>
@@ -6045,7 +6049,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>22</v>
       </c>
@@ -6053,7 +6057,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>22</v>
       </c>
@@ -6061,7 +6065,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>22</v>
       </c>
@@ -6069,7 +6073,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>22</v>
       </c>
@@ -6077,7 +6081,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>22</v>
       </c>
@@ -6085,7 +6089,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>22</v>
       </c>
@@ -6093,7 +6097,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>22</v>
       </c>
@@ -6101,7 +6105,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>22</v>
       </c>
@@ -6109,7 +6113,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>22</v>
       </c>
@@ -6117,7 +6121,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>22</v>
       </c>
@@ -6125,7 +6129,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>22</v>
       </c>
@@ -6133,7 +6137,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>22</v>
       </c>
@@ -6141,7 +6145,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>22</v>
       </c>
@@ -6149,7 +6153,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>22</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>22</v>
       </c>
@@ -6165,7 +6169,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>22</v>
       </c>
@@ -6173,7 +6177,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>22</v>
       </c>
@@ -6181,7 +6185,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>22</v>
       </c>
@@ -6189,7 +6193,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>22</v>
       </c>
@@ -6197,7 +6201,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>22</v>
       </c>
@@ -6205,7 +6209,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>22</v>
       </c>
@@ -6213,7 +6217,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>22</v>
       </c>
@@ -6221,7 +6225,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>22</v>
       </c>
@@ -6229,7 +6233,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>22</v>
       </c>
@@ -6237,7 +6241,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>22</v>
       </c>
@@ -6245,7 +6249,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>23</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>23</v>
       </c>
@@ -6261,7 +6265,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>23</v>
       </c>
@@ -6269,7 +6273,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>23</v>
       </c>
@@ -6277,7 +6281,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>23</v>
       </c>
@@ -6285,7 +6289,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>23</v>
       </c>
@@ -6293,7 +6297,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>23</v>
       </c>
@@ -6301,7 +6305,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>23</v>
       </c>
@@ -6309,7 +6313,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>23</v>
       </c>
@@ -6317,7 +6321,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>23</v>
       </c>
@@ -6325,7 +6329,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>23</v>
       </c>
@@ -6333,7 +6337,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>23</v>
       </c>
@@ -6341,7 +6345,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>23</v>
       </c>
@@ -6349,7 +6353,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>23</v>
       </c>
@@ -6357,7 +6361,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>23</v>
       </c>
@@ -6365,7 +6369,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>23</v>
       </c>
@@ -6373,7 +6377,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>23</v>
       </c>
@@ -6381,7 +6385,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>23</v>
       </c>
@@ -6389,7 +6393,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>23</v>
       </c>
@@ -6397,7 +6401,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>23</v>
       </c>
@@ -6405,7 +6409,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>23</v>
       </c>
@@ -6413,7 +6417,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>23</v>
       </c>
@@ -6421,7 +6425,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>23</v>
       </c>
@@ -6429,7 +6433,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>23</v>
       </c>
@@ -6437,7 +6441,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>23</v>
       </c>
@@ -6445,7 +6449,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>23</v>
       </c>
@@ -6453,7 +6457,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>23</v>
       </c>
@@ -6461,7 +6465,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>23</v>
       </c>
@@ -6469,7 +6473,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>24</v>
       </c>
@@ -6477,7 +6481,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>24</v>
       </c>
@@ -6485,7 +6489,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>24</v>
       </c>
@@ -6493,7 +6497,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>24</v>
       </c>
@@ -6501,7 +6505,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>24</v>
       </c>
@@ -6509,7 +6513,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>24</v>
       </c>
@@ -6517,7 +6521,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>24</v>
       </c>
@@ -6525,7 +6529,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>24</v>
       </c>
@@ -6533,7 +6537,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>24</v>
       </c>
@@ -6541,7 +6545,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>24</v>
       </c>
@@ -6549,7 +6553,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>24</v>
       </c>
@@ -6557,7 +6561,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>24</v>
       </c>
@@ -6565,7 +6569,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>24</v>
       </c>
@@ -6573,7 +6577,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>24</v>
       </c>
@@ -6581,7 +6585,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>24</v>
       </c>
@@ -6589,7 +6593,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>24</v>
       </c>
@@ -6597,7 +6601,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>24</v>
       </c>
@@ -6605,7 +6609,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>24</v>
       </c>
@@ -6613,7 +6617,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>24</v>
       </c>
@@ -6621,7 +6625,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>24</v>
       </c>
@@ -6629,7 +6633,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>24</v>
       </c>
@@ -6637,7 +6641,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>24</v>
       </c>
@@ -6645,7 +6649,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>24</v>
       </c>
@@ -6653,7 +6657,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>24</v>
       </c>
@@ -6661,7 +6665,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>24</v>
       </c>
@@ -6669,7 +6673,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>24</v>
       </c>
@@ -6677,7 +6681,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>24</v>
       </c>
@@ -6685,7 +6689,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>24</v>
       </c>
@@ -6693,7 +6697,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>25</v>
       </c>
@@ -6701,7 +6705,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>25</v>
       </c>
@@ -6709,7 +6713,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>25</v>
       </c>
@@ -6717,7 +6721,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>25</v>
       </c>
@@ -6725,7 +6729,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>25</v>
       </c>
@@ -6733,7 +6737,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>25</v>
       </c>
@@ -6741,7 +6745,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>25</v>
       </c>
@@ -6749,7 +6753,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>25</v>
       </c>
@@ -6757,7 +6761,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>25</v>
       </c>
@@ -6765,7 +6769,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>25</v>
       </c>
@@ -6773,7 +6777,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>25</v>
       </c>
@@ -6781,7 +6785,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>25</v>
       </c>
@@ -6789,7 +6793,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>25</v>
       </c>
@@ -6797,7 +6801,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>25</v>
       </c>
@@ -6805,7 +6809,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>25</v>
       </c>
@@ -6813,7 +6817,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>25</v>
       </c>
@@ -6821,7 +6825,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>25</v>
       </c>
@@ -6829,7 +6833,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>25</v>
       </c>
@@ -6837,7 +6841,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>25</v>
       </c>
@@ -6845,7 +6849,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>25</v>
       </c>
@@ -6853,7 +6857,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>25</v>
       </c>
@@ -6861,7 +6865,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>25</v>
       </c>
@@ -6869,7 +6873,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>25</v>
       </c>
@@ -6877,7 +6881,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>25</v>
       </c>
@@ -6885,7 +6889,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>25</v>
       </c>
@@ -6893,7 +6897,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>25</v>
       </c>
@@ -6901,7 +6905,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>25</v>
       </c>
@@ -6909,7 +6913,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>25</v>
       </c>
@@ -6917,7 +6921,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>26</v>
       </c>
@@ -6925,7 +6929,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>26</v>
       </c>
@@ -6933,7 +6937,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>26</v>
       </c>
@@ -6941,7 +6945,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>26</v>
       </c>
@@ -6949,7 +6953,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>26</v>
       </c>
@@ -6957,7 +6961,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>26</v>
       </c>
@@ -6965,7 +6969,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>26</v>
       </c>
@@ -6973,7 +6977,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>26</v>
       </c>
@@ -6981,7 +6985,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>26</v>
       </c>
@@ -6989,7 +6993,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>26</v>
       </c>
@@ -6997,7 +7001,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>26</v>
       </c>
@@ -7005,7 +7009,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>26</v>
       </c>
@@ -7013,7 +7017,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>26</v>
       </c>
@@ -7021,7 +7025,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>26</v>
       </c>
@@ -7029,7 +7033,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>26</v>
       </c>
@@ -7037,7 +7041,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>26</v>
       </c>
@@ -7045,7 +7049,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>26</v>
       </c>
@@ -7053,7 +7057,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>26</v>
       </c>
@@ -7061,7 +7065,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>26</v>
       </c>
@@ -7069,7 +7073,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>26</v>
       </c>
@@ -7077,7 +7081,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>26</v>
       </c>
@@ -7085,7 +7089,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>26</v>
       </c>
@@ -7093,7 +7097,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>26</v>
       </c>
@@ -7101,7 +7105,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>26</v>
       </c>
@@ -7109,7 +7113,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>26</v>
       </c>
@@ -7117,7 +7121,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>26</v>
       </c>
@@ -7125,7 +7129,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>26</v>
       </c>
@@ -7133,7 +7137,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>26</v>
       </c>
